--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -1,103 +1,1040 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28410"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yons/workspace/BlackJack/config_multi.xls/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="37520" windowHeight="21140"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="216">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>keyword:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EN:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC:string</t>
+  </si>
+  <si>
+    <t>YD:string</t>
   </si>
   <si>
     <t>ZH:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>SETTING</t>
+  </si>
+  <si>
+    <t>設置</t>
+  </si>
+  <si>
+    <t>सेटअप</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>INBOX</t>
+  </si>
+  <si>
+    <t>郵箱</t>
+  </si>
+  <si>
+    <t>मेलबाक्स</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>活動</t>
+  </si>
+  <si>
+    <t>सक्रिया</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>रेजिंग</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>BACKPACK</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>केनेपसेक</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>任務</t>
+  </si>
+  <si>
+    <t>कार्य</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>RECORD</t>
+  </si>
+  <si>
+    <t>記錄</t>
+  </si>
+  <si>
+    <t>रिकार्ड</t>
+  </si>
+  <si>
+    <t>记录</t>
+  </si>
+  <si>
+    <t>Linking</t>
+  </si>
+  <si>
+    <t>LINKING</t>
+  </si>
+  <si>
+    <t>正在連接</t>
+  </si>
+  <si>
+    <t>कनेक्शन पर</t>
+  </si>
+  <si>
+    <t>正在连接</t>
+  </si>
+  <si>
+    <t>LoggingIn</t>
+  </si>
+  <si>
+    <t>LOGGING IN</t>
+  </si>
+  <si>
+    <t>登陸中</t>
+  </si>
+  <si>
+    <t>लॉग इन करें</t>
+  </si>
+  <si>
+    <t>登陆中</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>वापसी</t>
+  </si>
+  <si>
+    <t>PlayNow</t>
+  </si>
+  <si>
+    <t>PLAY NOW</t>
+  </si>
+  <si>
+    <t>快速開始</t>
+  </si>
+  <si>
+    <t>तेज़ खेल</t>
+  </si>
+  <si>
+    <t>快速开始</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>LOADING</t>
+  </si>
+  <si>
+    <t>加載中</t>
+  </si>
+  <si>
+    <t>लोड हो रहा है</t>
+  </si>
+  <si>
+    <t>正在切换场景</t>
+  </si>
+  <si>
+    <t>MinBet</t>
+  </si>
+  <si>
+    <t>最小投注</t>
+  </si>
+  <si>
+    <t>न्यूनतम शर्त</t>
+  </si>
+  <si>
+    <t>最小下注</t>
+  </si>
+  <si>
+    <t>MaxBet</t>
+  </si>
+  <si>
+    <t>最大投注</t>
+  </si>
+  <si>
+    <t>अधिकतम शर्त</t>
+  </si>
+  <si>
+    <t>最大下注</t>
+  </si>
+  <si>
+    <t>Sevenday</t>
+  </si>
+  <si>
+    <t>Sign in on the 7th</t>
+  </si>
+  <si>
+    <t>七天簽到</t>
+  </si>
+  <si>
+    <t>सात दिनों में जाँच करें</t>
+  </si>
+  <si>
+    <t>七天签到</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>第一天</t>
+  </si>
+  <si>
+    <t>पहला दिन</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>第二天</t>
+  </si>
+  <si>
+    <t>अगले दिन</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>第三天</t>
+  </si>
+  <si>
+    <t>तीसरे दिन</t>
+  </si>
+  <si>
+    <t>Day4</t>
+  </si>
+  <si>
+    <t>第四天</t>
+  </si>
+  <si>
+    <t>चौथा दिन</t>
+  </si>
+  <si>
+    <t>Day5</t>
+  </si>
+  <si>
+    <t>第五天</t>
+  </si>
+  <si>
+    <t>पाँचवा दिवस</t>
+  </si>
+  <si>
+    <t>Day6</t>
+  </si>
+  <si>
+    <t>第六天</t>
+  </si>
+  <si>
+    <t>छठा दिन</t>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>第七天</t>
+  </si>
+  <si>
+    <t>सातवां दिन</t>
+  </si>
+  <si>
+    <t>Relief</t>
+  </si>
+  <si>
+    <t>救濟金</t>
+  </si>
+  <si>
+    <t>भिक्षा</t>
+  </si>
+  <si>
+    <t>救济金</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>初級場</t>
+  </si>
+  <si>
+    <t>मुख्य</t>
+  </si>
+  <si>
+    <t>初级场</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>SENIOR</t>
+  </si>
+  <si>
+    <t>高級場</t>
+  </si>
+  <si>
+    <t>उन्नत</t>
+  </si>
+  <si>
+    <t>高级场</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>大師場</t>
+  </si>
+  <si>
+    <t>ग्रांडमास्टर</t>
+  </si>
+  <si>
+    <t>大师场</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>EXPERT</t>
+  </si>
+  <si>
+    <t>專家場</t>
+  </si>
+  <si>
+    <t>विशेषज्ञ</t>
+  </si>
+  <si>
+    <t>专家场</t>
+  </si>
+  <si>
+    <t>bet</t>
+  </si>
+  <si>
+    <t>BET</t>
+  </si>
+  <si>
+    <t>籌碼</t>
+  </si>
+  <si>
+    <t>टुकड़ा</t>
+  </si>
+  <si>
+    <t>筹码</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>金幣</t>
+  </si>
+  <si>
+    <t>सोना</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>onlinePlayer</t>
+  </si>
+  <si>
+    <t>ONLINE PLAYER</t>
+  </si>
+  <si>
+    <t>在線人數</t>
+  </si>
+  <si>
+    <t>ऑनलाइन उपयोगकर्ता</t>
+  </si>
+  <si>
+    <t>在线人数</t>
+  </si>
+  <si>
+    <t>coinTooMuch</t>
+  </si>
+  <si>
+    <t>Too many gold coins, please choose a more advanced room</t>
+  </si>
+  <si>
+    <t>金幣過多，請選擇更高級的房間</t>
+  </si>
+  <si>
+    <t>अत्यधिक सोने के सिक्के, कृपया एक उच्च कमरे का चयन करें</t>
+  </si>
+  <si>
+    <t>金币过多，请选择更高级的房间</t>
+  </si>
+  <si>
+    <t>coinNotEnough</t>
+  </si>
+  <si>
+    <t>Not enough gold coins, please choose a lower room</t>
+  </si>
+  <si>
+    <t>金幣不足，請選擇更低級的房間</t>
+  </si>
+  <si>
+    <t>यदि सोने का सिक्का पर्याप्त नहीं है, तो कृपया निचले स्तर के कमरे का चयन करें।</t>
+  </si>
+  <si>
+    <t>金币不足，请选择更低级的房间</t>
+  </si>
+  <si>
+    <t>Sit</t>
+  </si>
+  <si>
+    <t>SIT</t>
+  </si>
+  <si>
+    <t>坐下</t>
+  </si>
+  <si>
+    <t>बैठ जाओ</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>STAND</t>
+  </si>
+  <si>
+    <t>站起</t>
+  </si>
+  <si>
+    <t>खड़े हो जाओ</t>
+  </si>
+  <si>
+    <t>ReBet</t>
+  </si>
+  <si>
+    <t>重複下注</t>
+  </si>
+  <si>
+    <t>दोहराना शर्त</t>
+  </si>
+  <si>
+    <t>重复下注</t>
+  </si>
+  <si>
+    <t>Insure</t>
+  </si>
+  <si>
+    <t>INSURE</t>
+  </si>
+  <si>
+    <t>保險</t>
+  </si>
+  <si>
+    <t>बीमा</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>रद्द करें</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>SPLIT</t>
+  </si>
+  <si>
+    <t>分牌</t>
+  </si>
+  <si>
+    <t>सबट्रैक</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>雙倍</t>
+  </si>
+  <si>
+    <t>दोहरा</t>
+  </si>
+  <si>
+    <t>双倍</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t>要牌</t>
+  </si>
+  <si>
+    <t>हिट</t>
+  </si>
+  <si>
+    <t>停牌</t>
+  </si>
+  <si>
+    <t>स्थिर</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>音樂</t>
+  </si>
+  <si>
+    <t>संगीत</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>SOUND</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>ध्वनि</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>RULE</t>
+  </si>
+  <si>
+    <t>規則</t>
+  </si>
+  <si>
+    <t>नियम</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>personalInformation</t>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t>個人信息</t>
+  </si>
+  <si>
+    <t>व्यक्तिगत जानकारी</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>GameNum</t>
+  </si>
+  <si>
+    <t>GAME NUM</t>
+  </si>
+  <si>
+    <t>遊戲場次</t>
+  </si>
+  <si>
+    <t>खेल संख्या</t>
+  </si>
+  <si>
+    <t>游戏局数</t>
+  </si>
+  <si>
+    <t>WinNum</t>
+  </si>
+  <si>
+    <t>WIN NUM</t>
+  </si>
+  <si>
+    <t>勝利場次</t>
+  </si>
+  <si>
+    <t>संख्या जीतना</t>
+  </si>
+  <si>
+    <t>胜利局数</t>
+  </si>
+  <si>
+    <t>WINRate</t>
+  </si>
+  <si>
+    <t>WIN RATE</t>
+  </si>
+  <si>
+    <t>勝率</t>
+  </si>
+  <si>
+    <t>जीत</t>
+  </si>
+  <si>
+    <t>胜率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -105,9 +1042,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -115,17 +1294,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -416,37 +1642,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="79.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83333333333333" style="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="79.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.8333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="13" max="14" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.8333333333333" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,71 +1682,1015 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="312">
   <si>
     <t>id</t>
   </si>
@@ -387,13 +387,13 @@
     <t>BET</t>
   </si>
   <si>
-    <t>籌碼</t>
+    <t>選擇籌碼</t>
   </si>
   <si>
     <t>टुकड़ा</t>
   </si>
   <si>
-    <t>筹码</t>
+    <t>选择筹码</t>
   </si>
   <si>
     <t>coin</t>
@@ -468,96 +468,99 @@
     <t>बैठ जाओ</t>
   </si>
   <si>
+    <t>Standup</t>
+  </si>
+  <si>
+    <t>STAND</t>
+  </si>
+  <si>
+    <t>站起</t>
+  </si>
+  <si>
+    <t>खड़े हो जाओ</t>
+  </si>
+  <si>
+    <t>ReBet</t>
+  </si>
+  <si>
+    <t>重複下注</t>
+  </si>
+  <si>
+    <t>दोहराना शर्त</t>
+  </si>
+  <si>
+    <t>重复下注</t>
+  </si>
+  <si>
+    <t>Insure</t>
+  </si>
+  <si>
+    <t>INSURE</t>
+  </si>
+  <si>
+    <t>保險</t>
+  </si>
+  <si>
+    <t>बीमा</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>रद्द करें</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>SPLIT</t>
+  </si>
+  <si>
+    <t>分牌</t>
+  </si>
+  <si>
+    <t>सबट्रैक</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>雙倍</t>
+  </si>
+  <si>
+    <t>दोहरा</t>
+  </si>
+  <si>
+    <t>双倍</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t>要牌</t>
+  </si>
+  <si>
+    <t>हिट</t>
+  </si>
+  <si>
     <t>Stand</t>
   </si>
   <si>
-    <t>STAND</t>
-  </si>
-  <si>
-    <t>站起</t>
-  </si>
-  <si>
-    <t>खड़े हो जाओ</t>
-  </si>
-  <si>
-    <t>ReBet</t>
-  </si>
-  <si>
-    <t>重複下注</t>
-  </si>
-  <si>
-    <t>दोहराना शर्त</t>
-  </si>
-  <si>
-    <t>重复下注</t>
-  </si>
-  <si>
-    <t>Insure</t>
-  </si>
-  <si>
-    <t>INSURE</t>
-  </si>
-  <si>
-    <t>保險</t>
-  </si>
-  <si>
-    <t>बीमा</t>
-  </si>
-  <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>CANCEL</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>रद्द करें</t>
-  </si>
-  <si>
-    <t>Split</t>
-  </si>
-  <si>
-    <t>SPLIT</t>
-  </si>
-  <si>
-    <t>分牌</t>
-  </si>
-  <si>
-    <t>सबट्रैक</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>雙倍</t>
-  </si>
-  <si>
-    <t>दोहरा</t>
-  </si>
-  <si>
-    <t>双倍</t>
-  </si>
-  <si>
-    <t>Hit</t>
-  </si>
-  <si>
-    <t>HIT</t>
-  </si>
-  <si>
-    <t>要牌</t>
-  </si>
-  <si>
-    <t>हिट</t>
-  </si>
-  <si>
     <t>停牌</t>
   </si>
   <si>
@@ -664,6 +667,291 @@
   </si>
   <si>
     <t>胜率</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>確定</t>
+  </si>
+  <si>
+    <t>ठीक है</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>placeyourbets</t>
+  </si>
+  <si>
+    <t>PLACE YOUR BETS</t>
+  </si>
+  <si>
+    <t>輪到你下注</t>
+  </si>
+  <si>
+    <t>तुम्हारे बेटों को जगह करें</t>
+  </si>
+  <si>
+    <t>轮到你下注</t>
+  </si>
+  <si>
+    <t>headsup</t>
+  </si>
+  <si>
+    <t>Heads up</t>
+  </si>
+  <si>
+    <t>開始發牌</t>
+  </si>
+  <si>
+    <t>शीर्ष उप्पर</t>
+  </si>
+  <si>
+    <t>开始发牌</t>
+  </si>
+  <si>
+    <t>dealerbust</t>
+  </si>
+  <si>
+    <t>Dealer bust</t>
+  </si>
+  <si>
+    <t>正在結算</t>
+  </si>
+  <si>
+    <t>डीलर बस्ट</t>
+  </si>
+  <si>
+    <t>正在结算</t>
+  </si>
+  <si>
+    <t>blackjack</t>
+  </si>
+  <si>
+    <t>Congratulations on the blackjack</t>
+  </si>
+  <si>
+    <t>恭喜獲得黑傑克</t>
+  </si>
+  <si>
+    <t>ब्लैकजैक पर अभिनन्दन</t>
+  </si>
+  <si>
+    <t>恭喜获得黑杰克</t>
+  </si>
+  <si>
+    <t>Poornetwork</t>
+  </si>
+  <si>
+    <t>Poor Network</t>
+  </si>
+  <si>
+    <t>網絡狀況不佳</t>
+  </si>
+  <si>
+    <t>गरीब नेटवर्क</t>
+  </si>
+  <si>
+    <t>网络状况不佳</t>
+  </si>
+  <si>
+    <t>ante</t>
+  </si>
+  <si>
+    <t>ANTE</t>
+  </si>
+  <si>
+    <t>底註</t>
+  </si>
+  <si>
+    <t>एंटेस</t>
+  </si>
+  <si>
+    <t>底注</t>
+  </si>
+  <si>
+    <t>maxlind</t>
+  </si>
+  <si>
+    <t>MAXLIND</t>
+  </si>
+  <si>
+    <t>最大加註次數</t>
+  </si>
+  <si>
+    <t>भरने की अधिकतम संख्या</t>
+  </si>
+  <si>
+    <t>最大加注次数</t>
+  </si>
+  <si>
+    <t>potlimit</t>
+  </si>
+  <si>
+    <t>POT LIMIT</t>
+  </si>
+  <si>
+    <t>最大下注限制</t>
+  </si>
+  <si>
+    <t>अधिकतम शर्त प्रतिबंध</t>
+  </si>
+  <si>
+    <t>maxchaal</t>
+  </si>
+  <si>
+    <t>MAX CHAAL</t>
+  </si>
+  <si>
+    <t>最大加註值</t>
+  </si>
+  <si>
+    <t>अधिकतम अतिरिक्त मूल्य</t>
+  </si>
+  <si>
+    <t>最大加注值</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>看牌</t>
+  </si>
+  <si>
+    <t>घड़ी</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>PACK</t>
+  </si>
+  <si>
+    <t>棄牌</t>
+  </si>
+  <si>
+    <t>छोड़ देना</t>
+  </si>
+  <si>
+    <t>弃牌</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>SHOW</t>
+  </si>
+  <si>
+    <t>比牌</t>
+  </si>
+  <si>
+    <t>ब्रांड</t>
+  </si>
+  <si>
+    <t>sideshow</t>
+  </si>
+  <si>
+    <t>SIDESHOW</t>
+  </si>
+  <si>
+    <t>highcard</t>
+  </si>
+  <si>
+    <t>HIGH CARD</t>
+  </si>
+  <si>
+    <t>高牌</t>
+  </si>
+  <si>
+    <t>हाई कार्ड</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>PAIR</t>
+  </si>
+  <si>
+    <t>對子</t>
+  </si>
+  <si>
+    <t>जोड़ा</t>
+  </si>
+  <si>
+    <t>对子</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>同花</t>
+  </si>
+  <si>
+    <t>समान रंग</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>順子</t>
+  </si>
+  <si>
+    <t>इस मामले में</t>
+  </si>
+  <si>
+    <t>顺子</t>
+  </si>
+  <si>
+    <t>puresequence</t>
+  </si>
+  <si>
+    <t>PURE SEQUENCE</t>
+  </si>
+  <si>
+    <t>同花順</t>
+  </si>
+  <si>
+    <t>लालिमा</t>
+  </si>
+  <si>
+    <t>同花顺</t>
+  </si>
+  <si>
+    <t>trailorset</t>
+  </si>
+  <si>
+    <t>TRAIL OR SET</t>
+  </si>
+  <si>
+    <t>三條</t>
+  </si>
+  <si>
+    <t>तीन</t>
+  </si>
+  <si>
+    <t>三条</t>
+  </si>
+  <si>
+    <t>chaal</t>
+  </si>
+  <si>
+    <t>CHAAL</t>
+  </si>
+  <si>
+    <t>下注</t>
+  </si>
+  <si>
+    <t>शर्त</t>
   </si>
 </sst>
 </file>
@@ -696,16 +984,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,17 +1013,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,11 +1043,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -787,18 +1090,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,21 +1127,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -849,7 +1137,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +1173,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,133 +1299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,24 +1321,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1040,6 +1328,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1058,17 +1372,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,15 +1405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1129,17 +1428,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1148,10 +1436,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,133 +1448,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,10 +1583,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1648,30 +1936,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.83333333333333" style="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="79.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.8333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.3333333333333" style="1" customWidth="1"/>
-    <col min="13" max="14" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.8333333333333" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.83333333333333" style="1"/>
+    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="37.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2294,7 +2570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" ht="33" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2314,7 +2590,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" ht="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2499,19 +2775,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2519,19 +2795,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2539,19 +2815,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2559,19 +2835,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2579,19 +2855,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2599,19 +2875,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2619,19 +2895,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2639,19 +2915,439 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="361">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +30,7 @@
     <t>TC:string</t>
   </si>
   <si>
-    <t>YD:string</t>
+    <t>IN:string</t>
   </si>
   <si>
     <t>ZH:string</t>
@@ -952,6 +952,153 @@
   </si>
   <si>
     <t>शर्त</t>
+  </si>
+  <si>
+    <t>blackjackTitle</t>
+  </si>
+  <si>
+    <t>BLACKJACK</t>
+  </si>
+  <si>
+    <t>21點</t>
+  </si>
+  <si>
+    <t>21点</t>
+  </si>
+  <si>
+    <t>blackjackTask</t>
+  </si>
+  <si>
+    <t>Complete 3 games of Blackjack</t>
+  </si>
+  <si>
+    <t>完成3局21點遊戲</t>
+  </si>
+  <si>
+    <t>पूरा 3 "Blackjack"</t>
+  </si>
+  <si>
+    <t>完成3局21点游戏</t>
+  </si>
+  <si>
+    <t>pots</t>
+  </si>
+  <si>
+    <t>POTS</t>
+  </si>
+  <si>
+    <t>底池</t>
+  </si>
+  <si>
+    <t>पाट</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>跟註</t>
+  </si>
+  <si>
+    <t>अनुसरण</t>
+  </si>
+  <si>
+    <t>跟注</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>FOLD</t>
+  </si>
+  <si>
+    <t>छोड़ें</t>
+  </si>
+  <si>
+    <t>checlorfold</t>
+  </si>
+  <si>
+    <t>CHECK OR FOLD</t>
+  </si>
+  <si>
+    <t>讓或棄</t>
+  </si>
+  <si>
+    <t>छोड़ो या छोड़ें</t>
+  </si>
+  <si>
+    <t>让或弃</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>過牌</t>
+  </si>
+  <si>
+    <t>भी</t>
+  </si>
+  <si>
+    <t>过牌</t>
+  </si>
+  <si>
+    <t>alwayscall</t>
+  </si>
+  <si>
+    <t>ALWAYS CALL</t>
+  </si>
+  <si>
+    <t>跟任何</t>
+  </si>
+  <si>
+    <t>किसी के साथ</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>大盲</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>小盲</t>
+  </si>
+  <si>
+    <t>bigblind</t>
+  </si>
+  <si>
+    <t>BIGBLING</t>
+  </si>
+  <si>
+    <t>大盲註</t>
+  </si>
+  <si>
+    <t>बड़ा ब्लैंड इंजीक्शन</t>
+  </si>
+  <si>
+    <t>大盲注</t>
+  </si>
+  <si>
+    <t>smallblind</t>
+  </si>
+  <si>
+    <t>SMALLBLIND</t>
+  </si>
+  <si>
+    <t>小盲註</t>
+  </si>
+  <si>
+    <t>छोटा ब्लैंड इंजीक्शन</t>
+  </si>
+  <si>
+    <t>小盲注</t>
   </si>
 </sst>
 </file>
@@ -984,21 +1131,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -1021,6 +1153,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
@@ -1029,7 +1169,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1037,7 +1177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,7 +1200,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1068,9 +1208,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1091,23 +1239,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,7 +1254,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,13 +1284,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,31 +1392,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,133 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,17 +1478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1352,6 +1488,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1376,7 +1527,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,22 +1551,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,6 +1564,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1436,10 +1583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1448,133 +1595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1936,10 +2083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:A70"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3348,6 +3495,243 @@
       </c>
       <c r="F70" s="1" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" ht="17" customHeight="1" spans="1:6">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yons/workspace/BlackJack/config_multi.xls/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="37520" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -12,11 +17,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="366">
   <si>
     <t>id</t>
   </si>
@@ -1099,19 +1112,33 @@
   </si>
   <si>
     <t>小盲注</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,345 +1158,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1477,251 +1180,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1736,57 +1197,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2077,27 +1491,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="37.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="37.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +1532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2137,7 +1552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2157,7 +1572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2177,7 +1592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2197,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2217,7 +1632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2237,7 +1652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2257,7 +1672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2277,7 +1692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2297,7 +1712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2317,7 +1732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2337,7 +1752,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2357,7 +1772,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2377,7 +1792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2397,7 +1812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2417,7 +1832,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2437,7 +1852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2457,7 +1872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2477,7 +1892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2497,7 +1912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2517,7 +1932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2537,7 +1952,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2557,7 +1972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2577,7 +1992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2597,7 +2012,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2617,7 +2032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2637,7 +2052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2657,7 +2072,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2677,7 +2092,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2697,7 +2112,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2717,7 +2132,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" ht="33" spans="1:6">
+    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2737,7 +2152,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" ht="33" spans="1:6">
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2757,7 +2172,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2777,7 +2192,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2797,7 +2212,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2817,7 +2232,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2837,7 +2252,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2857,7 +2272,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2877,7 +2292,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2897,7 +2312,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2917,7 +2332,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2937,7 +2352,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2957,7 +2372,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2977,7 +2392,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2997,7 +2412,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3017,7 +2432,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3037,7 +2452,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3057,7 +2472,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3077,7 +2492,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3097,7 +2512,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3117,7 +2532,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3137,7 +2552,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3157,7 +2572,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3177,7 +2592,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3197,7 +2612,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3217,7 +2632,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3237,7 +2652,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3257,7 +2672,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3277,7 +2692,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3297,7 +2712,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3317,7 +2732,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3337,7 +2752,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3357,7 +2772,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3377,7 +2792,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3397,7 +2812,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3417,7 +2832,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3437,7 +2852,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3457,7 +2872,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3477,7 +2892,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3497,7 +2912,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3517,7 +2932,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3537,7 +2952,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3557,7 +2972,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3577,7 +2992,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3597,7 +3012,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76" ht="17" customHeight="1" spans="1:6">
+    <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3617,7 +3032,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3637,7 +3052,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3657,7 +3072,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3677,7 +3092,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3697,7 +3112,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3717,7 +3132,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>356</v>
       </c>
@@ -3734,43 +3152,57 @@
         <v>360</v>
       </c>
     </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yons/workspace/BlackJack/config_multi.xls/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="37520" windowHeight="21140"/>
+    <workbookView windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -17,19 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="463">
   <si>
     <t>id</t>
   </si>
@@ -379,6 +366,21 @@
     <t>大师场</t>
   </si>
   <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>SUPREME</t>
+  </si>
+  <si>
+    <t>至尊場</t>
+  </si>
+  <si>
+    <t>उच्च</t>
+  </si>
+  <si>
+    <t>至尊场</t>
+  </si>
+  <si>
     <t>expert</t>
   </si>
   <si>
@@ -847,7 +849,7 @@
     <t>棄牌</t>
   </si>
   <si>
-    <t>छोड़ देना</t>
+    <t>फोल्ड</t>
   </si>
   <si>
     <t>弃牌</t>
@@ -988,7 +990,7 @@
     <t>完成3局21點遊戲</t>
   </si>
   <si>
-    <t>पूरा 3 "Blackjack"</t>
+    <t>3 बूर्स Blackjack</t>
   </si>
   <si>
     <t>完成3局21点游戏</t>
@@ -1114,31 +1116,308 @@
     <t>小盲注</t>
   </si>
   <si>
-    <t>LANGUAGE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>YD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>qian</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>wan</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>萬</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>baiwan</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>百萬</t>
+  </si>
+  <si>
+    <t>百万</t>
+  </si>
+  <si>
+    <t>xieyi</t>
+  </si>
+  <si>
+    <t>Agree to the 《User Use Agreement》</t>
+  </si>
+  <si>
+    <t>同意《用戶使用協議》</t>
+  </si>
+  <si>
+    <t>स्वीकारें "प्रयोक्ता स्वीकार करें"</t>
+  </si>
+  <si>
+    <t>同意《用户使用协议》</t>
+  </si>
+  <si>
+    <t>zhunbei</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>已準備</t>
+  </si>
+  <si>
+    <t>तैयार</t>
+  </si>
+  <si>
+    <t>已准备</t>
+  </si>
+  <si>
+    <t>gaopai</t>
+  </si>
+  <si>
+    <t>yidui</t>
+  </si>
+  <si>
+    <t>ONE PAIR</t>
+  </si>
+  <si>
+    <t>一對</t>
+  </si>
+  <si>
+    <t>一对</t>
+  </si>
+  <si>
+    <t>liangdui</t>
+  </si>
+  <si>
+    <t>TWO PAIR</t>
+  </si>
+  <si>
+    <t>兩隊</t>
+  </si>
+  <si>
+    <t>दो जोड़े</t>
+  </si>
+  <si>
+    <t>两对</t>
+  </si>
+  <si>
+    <t>santiao</t>
+  </si>
+  <si>
+    <t>THREE OF A KIND</t>
+  </si>
+  <si>
+    <t>shunzi</t>
+  </si>
+  <si>
+    <t>STRAIGHT</t>
+  </si>
+  <si>
+    <t>tonhua</t>
+  </si>
+  <si>
+    <t>FLUSH</t>
+  </si>
+  <si>
+    <t>hulu</t>
+  </si>
+  <si>
+    <t>FULL HOUSE</t>
+  </si>
+  <si>
+    <t>葫蘆</t>
+  </si>
+  <si>
+    <t>पूरा सदन</t>
+  </si>
+  <si>
+    <t>葫芦</t>
+  </si>
+  <si>
+    <t>sitiao</t>
+  </si>
+  <si>
+    <t>FOUR OF A KIND</t>
+  </si>
+  <si>
+    <t>四條</t>
+  </si>
+  <si>
+    <t>चार</t>
+  </si>
+  <si>
+    <t>四条</t>
+  </si>
+  <si>
+    <t>tonghuashun</t>
+  </si>
+  <si>
+    <t>STRAIGHT FLUSH</t>
+  </si>
+  <si>
+    <t>huajiatonghuashun</t>
+  </si>
+  <si>
+    <t>ROYAL FLUSH</t>
+  </si>
+  <si>
+    <t>皇家同花順</t>
+  </si>
+  <si>
+    <t>रॉयल फ़्लश</t>
+  </si>
+  <si>
+    <t>皇家同花顺</t>
+  </si>
+  <si>
+    <t>qipai</t>
+  </si>
+  <si>
+    <t>genzhu</t>
+  </si>
+  <si>
+    <t>तथा</t>
+  </si>
+  <si>
+    <t>jiazhu</t>
+  </si>
+  <si>
+    <t>RAISE</t>
+  </si>
+  <si>
+    <t>加註</t>
+  </si>
+  <si>
+    <t>भरना</t>
+  </si>
+  <si>
+    <t>加注</t>
+  </si>
+  <si>
+    <t>guopai</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>घटाटोप</t>
+  </si>
+  <si>
+    <t>allin</t>
+  </si>
+  <si>
+    <t>ALL-IN</t>
+  </si>
+  <si>
+    <t>全下</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>WAITTING</t>
+  </si>
+  <si>
+    <t>思考中</t>
+  </si>
+  <si>
+    <t>विचारधारा</t>
+  </si>
+  <si>
+    <t>Intheroom</t>
+  </si>
+  <si>
+    <t>You are in the [] game room and will automatically enter the room in about 30 seconds</t>
+  </si>
+  <si>
+    <t>您正在【】遊戲房間中，大約30秒後自動進入房間</t>
+  </si>
+  <si>
+    <t>आप [] खेल कमरे में हैं और 30 सेकण्ड में स्वचालित रूप में कमरा प्रविष्ट करेंगे</t>
+  </si>
+  <si>
+    <t>您正在【】游戏房间中，大约30秒后自动进入房间</t>
+  </si>
+  <si>
+    <t>notbet</t>
+  </si>
+  <si>
+    <t>Not betting status</t>
+  </si>
+  <si>
+    <t>不是下注狀態</t>
+  </si>
+  <si>
+    <t>बेटिंग स्थिति नहीं</t>
+  </si>
+  <si>
+    <t>不是下注状态</t>
+  </si>
+  <si>
+    <t>lingquchenggong</t>
+  </si>
+  <si>
+    <t>Received successfully</t>
+  </si>
+  <si>
+    <t>領取成功</t>
+  </si>
+  <si>
+    <t>सफलतापूर्वक प्राप्त</t>
+  </si>
+  <si>
+    <t>领取成功</t>
+  </si>
+  <si>
+    <t>duanwangtishi</t>
+  </si>
+  <si>
+    <t>The link timed out, or you have disconnected the network</t>
+  </si>
+  <si>
+    <t>連接超時，或您已經斷開網絡</t>
+  </si>
+  <si>
+    <t>लिंक समय समाप्त, या आप नेटवर्क डिस्कनेक्ट किया है</t>
+  </si>
+  <si>
+    <t>链接超时，或您已经断开网络</t>
+  </si>
+  <si>
+    <t>dianjipinfan</t>
+  </si>
+  <si>
+    <t>Click too often, please try again in 1 second</t>
+  </si>
+  <si>
+    <t>點擊過於頻繁，請1秒後重試</t>
+  </si>
+  <si>
+    <t>बहुत बार क्लिक करें, कृपया 1 सेकण्ड में फिर कोशिश करें</t>
+  </si>
+  <si>
+    <t>点击过于频繁，请1秒后重试</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1158,21 +1437,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1180,9 +1783,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,10 +2042,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1491,28 +2383,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="37.83203125" style="1"/>
+    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="37.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +2423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1552,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1572,7 +2463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1592,7 +2483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1612,7 +2503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1632,7 +2523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1652,7 +2543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1672,7 +2563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1692,7 +2583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1712,7 +2603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1732,7 +2623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1752,7 +2643,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1772,7 +2663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1792,7 +2683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1812,7 +2703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1832,7 +2723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1852,7 +2743,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1872,7 +2763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1892,7 +2783,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1912,7 +2803,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1932,7 +2823,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1952,7 +2843,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1972,7 +2863,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1992,7 +2883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2012,7 +2903,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2032,7 +2923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" ht="17" customHeight="1" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2052,7 +2943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" ht="17" customHeight="1" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2072,7 +2963,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2092,7 +2983,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2112,7 +3003,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2132,7 +3023,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2152,7 +3043,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" ht="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2172,7 +3063,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" ht="33" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2189,55 +3080,55 @@
         <v>149</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>159</v>
@@ -2252,7 +3143,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2269,50 +3160,50 @@
         <v>166</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2329,50 +3220,50 @@
         <v>179</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2389,30 +3280,30 @@
         <v>191</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2432,7 +3323,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2452,7 +3343,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2472,7 +3363,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2492,7 +3383,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2500,24 +3391,24 @@
         <v>217</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>222</v>
@@ -2532,7 +3423,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2552,7 +3443,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2572,7 +3463,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2592,7 +3483,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2612,7 +3503,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2632,7 +3523,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2652,7 +3543,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2669,30 +3560,30 @@
         <v>259</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2709,30 +3600,30 @@
         <v>268</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2749,70 +3640,70 @@
         <v>277</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2829,30 +3720,30 @@
         <v>292</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2872,7 +3763,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2892,7 +3783,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2909,50 +3800,50 @@
         <v>311</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2969,30 +3860,30 @@
         <v>324</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3003,36 +3894,36 @@
         <v>331</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" ht="17" customHeight="1" spans="1:6">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3052,7 +3943,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3069,61 +3960,61 @@
         <v>346</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>354</v>
@@ -3132,7 +4023,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3152,7 +4043,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3172,37 +4063,563 @@
         <v>365</v>
       </c>
     </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" ht="48" customHeight="1" spans="1:6">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" ht="33" spans="1:6">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" ht="33" spans="1:6">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="494">
   <si>
     <t>id</t>
   </si>
@@ -1405,6 +1405,99 @@
   </si>
   <si>
     <t>点击过于频繁，请1秒后重试</t>
+  </si>
+  <si>
+    <t>room1</t>
+  </si>
+  <si>
+    <t>1K-2W</t>
+  </si>
+  <si>
+    <t>1千-2萬</t>
+  </si>
+  <si>
+    <t>1千-2万</t>
+  </si>
+  <si>
+    <t>room2</t>
+  </si>
+  <si>
+    <t>1W-20W</t>
+  </si>
+  <si>
+    <t>1万-20萬</t>
+  </si>
+  <si>
+    <t>1万-20万</t>
+  </si>
+  <si>
+    <t>room3</t>
+  </si>
+  <si>
+    <t>10W-200W</t>
+  </si>
+  <si>
+    <t>10万-200萬</t>
+  </si>
+  <si>
+    <t>10万-200万</t>
+  </si>
+  <si>
+    <t>room4</t>
+  </si>
+  <si>
+    <t>1M-20M</t>
+  </si>
+  <si>
+    <t>100万-2000萬</t>
+  </si>
+  <si>
+    <t>100万-2000万</t>
+  </si>
+  <si>
+    <t>room5</t>
+  </si>
+  <si>
+    <t>MORE THAN 10M</t>
+  </si>
+  <si>
+    <t>1000萬以上</t>
+  </si>
+  <si>
+    <t>1000万以上</t>
+  </si>
+  <si>
+    <t>room6</t>
+  </si>
+  <si>
+    <t>2W-25W</t>
+  </si>
+  <si>
+    <t>2萬-25萬</t>
+  </si>
+  <si>
+    <t>2万-25万</t>
+  </si>
+  <si>
+    <t>room7</t>
+  </si>
+  <si>
+    <t>MORE THAN 25W</t>
+  </si>
+  <si>
+    <t>25萬以上</t>
+  </si>
+  <si>
+    <t>25万以上</t>
+  </si>
+  <si>
+    <t>room8</t>
+  </si>
+  <si>
+    <t>MORE THAN 1M</t>
+  </si>
+  <si>
+    <t>100万以上</t>
   </si>
 </sst>
 </file>
@@ -1412,9 +1505,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1437,8 +1530,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,14 +1540,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1468,7 +1554,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,16 +1568,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1505,15 +1599,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1529,22 +1615,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1559,6 +1638,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -1566,9 +1653,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,7 +1683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,19 +1695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,7 +1713,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,13 +1749,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,61 +1773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,7 +1791,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,13 +1845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,19 +1857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,26 +1877,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,17 +1942,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1861,23 +1969,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1889,10 +1982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1901,133 +1994,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2389,10 +2482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4581,6 +4674,166 @@
       </c>
       <c r="F109" s="1" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="643">
   <si>
     <t>id</t>
   </si>
@@ -1152,13 +1152,13 @@
     <t>xieyi</t>
   </si>
   <si>
-    <t>Agree to the 《User Use Agreement》</t>
+    <t>Agree to the user use agreement</t>
   </si>
   <si>
     <t>同意《用戶使用協議》</t>
   </si>
   <si>
-    <t>स्वीकारें "प्रयोक्ता स्वीकार करें"</t>
+    <t>स्वीकारें प्रयोक्ता स्वीकार करें</t>
   </si>
   <si>
     <t>同意《用户使用协议》</t>
@@ -1191,6 +1191,9 @@
     <t>一對</t>
   </si>
   <si>
+    <t>एक जोड़ी</t>
+  </si>
+  <si>
     <t>一对</t>
   </si>
   <si>
@@ -1203,7 +1206,7 @@
     <t>兩隊</t>
   </si>
   <si>
-    <t>दो जोड़े</t>
+    <t>दो जोड़ी</t>
   </si>
   <si>
     <t>两对</t>
@@ -1215,12 +1218,18 @@
     <t>THREE OF A KIND</t>
   </si>
   <si>
+    <t>तीन एक से</t>
+  </si>
+  <si>
     <t>shunzi</t>
   </si>
   <si>
     <t>STRAIGHT</t>
   </si>
   <si>
+    <t>सीधा</t>
+  </si>
+  <si>
     <t>tonhua</t>
   </si>
   <si>
@@ -1251,7 +1260,7 @@
     <t>四條</t>
   </si>
   <si>
-    <t>चार</t>
+    <t>एक तरह के चार</t>
   </si>
   <si>
     <t>四条</t>
@@ -1263,6 +1272,9 @@
     <t>STRAIGHT FLUSH</t>
   </si>
   <si>
+    <t>सीधे फ्लश</t>
+  </si>
+  <si>
     <t>huajiatonghuashun</t>
   </si>
   <si>
@@ -1359,145 +1371,580 @@
     <t>बेटिंग स्थिति नहीं</t>
   </si>
   <si>
+    <t>未在下注状态</t>
+  </si>
+  <si>
+    <t>lingquchenggong</t>
+  </si>
+  <si>
+    <t>Received successfully</t>
+  </si>
+  <si>
+    <t>領取成功</t>
+  </si>
+  <si>
+    <t>सफलतापूर्वक प्राप्त</t>
+  </si>
+  <si>
+    <t>领取成功</t>
+  </si>
+  <si>
+    <t>duanwangtishi</t>
+  </si>
+  <si>
+    <t>The link timed out, or you have disconnected the network</t>
+  </si>
+  <si>
+    <t>連接超時，或您已經斷開網絡</t>
+  </si>
+  <si>
+    <t>लिंक समय समाप्त, या आप नेटवर्क डिस्कनेक्ट किया है</t>
+  </si>
+  <si>
+    <t>链接超时，或您已经断开网络</t>
+  </si>
+  <si>
+    <t>dianjipinfan</t>
+  </si>
+  <si>
+    <t>Click too often, please try again in 1 second</t>
+  </si>
+  <si>
+    <t>點擊過於頻繁，請1秒後重試</t>
+  </si>
+  <si>
+    <t>बहुत बार क्लिक करें, कृपया 1 सेकण्ड में फिर कोशिश करें</t>
+  </si>
+  <si>
+    <t>点击过于频繁，请1秒后重试</t>
+  </si>
+  <si>
+    <t>room1</t>
+  </si>
+  <si>
+    <t>1K-2W</t>
+  </si>
+  <si>
+    <t>1千-2萬</t>
+  </si>
+  <si>
+    <t>1千-2万</t>
+  </si>
+  <si>
+    <t>room2</t>
+  </si>
+  <si>
+    <t>1W-20W</t>
+  </si>
+  <si>
+    <t>1万-20萬</t>
+  </si>
+  <si>
+    <t>1万-20万</t>
+  </si>
+  <si>
+    <t>room3</t>
+  </si>
+  <si>
+    <t>10W-200W</t>
+  </si>
+  <si>
+    <t>10万-200萬</t>
+  </si>
+  <si>
+    <t>10万-200万</t>
+  </si>
+  <si>
+    <t>room4</t>
+  </si>
+  <si>
+    <t>1M-20M</t>
+  </si>
+  <si>
+    <t>100万-2000萬</t>
+  </si>
+  <si>
+    <t>100万-2000万</t>
+  </si>
+  <si>
+    <t>room5</t>
+  </si>
+  <si>
+    <t>MORE THAN 10M</t>
+  </si>
+  <si>
+    <t>1000萬以上</t>
+  </si>
+  <si>
+    <t>1000万以上</t>
+  </si>
+  <si>
+    <t>room6</t>
+  </si>
+  <si>
+    <t>2W-25W</t>
+  </si>
+  <si>
+    <t>2萬-25萬</t>
+  </si>
+  <si>
+    <t>2万-25万</t>
+  </si>
+  <si>
+    <t>room7</t>
+  </si>
+  <si>
+    <t>MORE THAN 25W</t>
+  </si>
+  <si>
+    <t>25萬以上</t>
+  </si>
+  <si>
+    <t>25万以上</t>
+  </si>
+  <si>
+    <t>room8</t>
+  </si>
+  <si>
+    <t>MORE THAN 1M</t>
+  </si>
+  <si>
+    <t>100万以上</t>
+  </si>
+  <si>
+    <t>backroom</t>
+  </si>
+  <si>
+    <t>Back to the room</t>
+  </si>
+  <si>
+    <t>回到房間</t>
+  </si>
+  <si>
+    <t>कमरे में वापस</t>
+  </si>
+  <si>
+    <t>回到房间</t>
+  </si>
+  <si>
+    <t>jinzhiyouxi</t>
+  </si>
+  <si>
+    <t>The game is currently prohibited. Please contact the administrator</t>
+  </si>
+  <si>
+    <t>當前禁止遊戲，請聯繫管理員</t>
+  </si>
+  <si>
+    <t>खेल वर्तमान में रोका गया है. कृपया प्रशासक से संपर्क करें</t>
+  </si>
+  <si>
+    <t>当前禁止游戏，请联系管理员</t>
+  </si>
+  <si>
+    <t>yilingqu</t>
+  </si>
+  <si>
+    <t>Today's check-in has been collected. You can't collect it again</t>
+  </si>
+  <si>
+    <t>今日簽到已領取，不可重複領取</t>
+  </si>
+  <si>
+    <t>आज की चेक इन एकत्रित किया गया है. आप इसे फिर नहीं एकत्रित कर सकते हैं</t>
+  </si>
+  <si>
+    <t>今日签到已领取，不可重复领取</t>
+  </si>
+  <si>
+    <t>notturn</t>
+  </si>
+  <si>
+    <t>It's not your turn</t>
+  </si>
+  <si>
+    <t>未輪到自己</t>
+  </si>
+  <si>
+    <t>यह तुम्हारी वार्ता नहीं है</t>
+  </si>
+  <si>
+    <t>未轮到自己</t>
+  </si>
+  <si>
+    <t>coinenough</t>
+  </si>
+  <si>
+    <t>Insufficient gold coins</t>
+  </si>
+  <si>
+    <t>金幣不足</t>
+  </si>
+  <si>
+    <t>अपर्याप्त सोने कोना</t>
+  </si>
+  <si>
+    <t>金币不足</t>
+  </si>
+  <si>
+    <t>notplayer</t>
+  </si>
+  <si>
+    <t>Player does not exist</t>
+  </si>
+  <si>
+    <t>玩家不存在</t>
+  </si>
+  <si>
+    <t>खेलाड़ी मौजूद नहीं है</t>
+  </si>
+  <si>
+    <t>Notbet</t>
+  </si>
+  <si>
+    <t>wrongstate</t>
+  </si>
+  <si>
+    <t>Wrong state</t>
+  </si>
+  <si>
+    <t>狀態不對</t>
+  </si>
+  <si>
+    <t>गलत स्थिति</t>
+  </si>
+  <si>
+    <t>状态不对</t>
+  </si>
+  <si>
+    <t>Insufficientconditions</t>
+  </si>
+  <si>
+    <t>Call or pass betting less than condition</t>
+  </si>
+  <si>
+    <t>跟和過投注額少於條件</t>
+  </si>
+  <si>
+    <t>स्थिति से कम से अनुसरण करें</t>
+  </si>
+  <si>
+    <t>跟和过投注额少于条件</t>
+  </si>
+  <si>
+    <t>resourceloading</t>
+  </si>
+  <si>
+    <t>Resource loading</t>
+  </si>
+  <si>
+    <t>資源加載中</t>
+  </si>
+  <si>
+    <t>संसाधन लोड करें</t>
+  </si>
+  <si>
+    <t>资源加载中</t>
+  </si>
+  <si>
+    <t>Poorsignal</t>
+  </si>
+  <si>
+    <t>Poor signal</t>
+  </si>
+  <si>
+    <t>訊號不良</t>
+  </si>
+  <si>
+    <t>गरीब संकेत</t>
+  </si>
+  <si>
+    <t>信号不良</t>
+  </si>
+  <si>
+    <t>reminder</t>
+  </si>
+  <si>
+    <t>REMINDER</t>
+  </si>
+  <si>
+    <t>溫馨提示</t>
+  </si>
+  <si>
+    <t>सचेतक</t>
+  </si>
+  <si>
+    <t>温馨提示</t>
+  </si>
+  <si>
+    <t>networkinstable</t>
+  </si>
+  <si>
+    <t>Your network is unstable. Please try again later</t>
+  </si>
+  <si>
+    <t>您的網絡不穩定，請稍後再試</t>
+  </si>
+  <si>
+    <t>आपका नेटवर्क अस्थिर है. कृपया बाद फिर कोशिश करें</t>
+  </si>
+  <si>
+    <t>您的网络不稳定，请稍后再试</t>
+  </si>
+  <si>
+    <t>returntologin</t>
+  </si>
+  <si>
+    <t>Return to login</t>
+  </si>
+  <si>
+    <t>返回登入</t>
+  </si>
+  <si>
+    <t>लॉगइन में वापस जाएँ</t>
+  </si>
+  <si>
+    <t>返回登录</t>
+  </si>
+  <si>
+    <t>retry</t>
+  </si>
+  <si>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>重試</t>
+  </si>
+  <si>
+    <t>फिर प्रयास करें</t>
+  </si>
+  <si>
+    <t>重试</t>
+  </si>
+  <si>
+    <t>notbetstatus</t>
+  </si>
+  <si>
     <t>不是下注状态</t>
   </si>
   <si>
-    <t>lingquchenggong</t>
-  </si>
-  <si>
-    <t>Received successfully</t>
-  </si>
-  <si>
-    <t>領取成功</t>
-  </si>
-  <si>
-    <t>सफलतापूर्वक प्राप्त</t>
-  </si>
-  <si>
-    <t>领取成功</t>
-  </si>
-  <si>
-    <t>duanwangtishi</t>
-  </si>
-  <si>
-    <t>The link timed out, or you have disconnected the network</t>
-  </si>
-  <si>
-    <t>連接超時，或您已經斷開網絡</t>
-  </si>
-  <si>
-    <t>लिंक समय समाप्त, या आप नेटवर्क डिस्कनेक्ट किया है</t>
-  </si>
-  <si>
-    <t>链接超时，或您已经断开网络</t>
-  </si>
-  <si>
-    <t>dianjipinfan</t>
-  </si>
-  <si>
-    <t>Click too often, please try again in 1 second</t>
-  </si>
-  <si>
-    <t>點擊過於頻繁，請1秒後重試</t>
-  </si>
-  <si>
-    <t>बहुत बार क्लिक करें, कृपया 1 सेकण्ड में फिर कोशिश करें</t>
-  </si>
-  <si>
-    <t>点击过于频繁，请1秒后重试</t>
-  </si>
-  <si>
-    <t>room1</t>
-  </si>
-  <si>
-    <t>1K-2W</t>
-  </si>
-  <si>
-    <t>1千-2萬</t>
-  </si>
-  <si>
-    <t>1千-2万</t>
-  </si>
-  <si>
-    <t>room2</t>
-  </si>
-  <si>
-    <t>1W-20W</t>
-  </si>
-  <si>
-    <t>1万-20萬</t>
-  </si>
-  <si>
-    <t>1万-20万</t>
-  </si>
-  <si>
-    <t>room3</t>
-  </si>
-  <si>
-    <t>10W-200W</t>
-  </si>
-  <si>
-    <t>10万-200萬</t>
-  </si>
-  <si>
-    <t>10万-200万</t>
-  </si>
-  <si>
-    <t>room4</t>
-  </si>
-  <si>
-    <t>1M-20M</t>
-  </si>
-  <si>
-    <t>100万-2000萬</t>
-  </si>
-  <si>
-    <t>100万-2000万</t>
-  </si>
-  <si>
-    <t>room5</t>
-  </si>
-  <si>
-    <t>MORE THAN 10M</t>
-  </si>
-  <si>
-    <t>1000萬以上</t>
-  </si>
-  <si>
-    <t>1000万以上</t>
-  </si>
-  <si>
-    <t>room6</t>
-  </si>
-  <si>
-    <t>2W-25W</t>
-  </si>
-  <si>
-    <t>2萬-25萬</t>
-  </si>
-  <si>
-    <t>2万-25万</t>
-  </si>
-  <si>
-    <t>room7</t>
-  </si>
-  <si>
-    <t>MORE THAN 25W</t>
-  </si>
-  <si>
-    <t>25萬以上</t>
-  </si>
-  <si>
-    <t>25万以上</t>
-  </si>
-  <si>
-    <t>room8</t>
-  </si>
-  <si>
-    <t>MORE THAN 1M</t>
-  </si>
-  <si>
-    <t>100万以上</t>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>COLLECT</t>
+  </si>
+  <si>
+    <t>領取</t>
+  </si>
+  <si>
+    <t>कलेक्ट</t>
+  </si>
+  <si>
+    <t>领取</t>
+  </si>
+  <si>
+    <t>TexasHoldemTitle</t>
+  </si>
+  <si>
+    <t>Texas Holdem</t>
+  </si>
+  <si>
+    <t>德州撲克</t>
+  </si>
+  <si>
+    <t>德州扑克</t>
+  </si>
+  <si>
+    <t>TexasHoldemTask</t>
+  </si>
+  <si>
+    <t>Complete 3 games of Texas Holdem</t>
+  </si>
+  <si>
+    <t>完成3局德州撲克</t>
+  </si>
+  <si>
+    <t>3 बूर्स Texas Holdem</t>
+  </si>
+  <si>
+    <t>完成3局德州扑克</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>SHARE</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>साझेदार</t>
+  </si>
+  <si>
+    <t>shareTitle</t>
+  </si>
+  <si>
+    <t>Share tasks</t>
+  </si>
+  <si>
+    <t>分享任務</t>
+  </si>
+  <si>
+    <t>कार्य साझा करें</t>
+  </si>
+  <si>
+    <t>分享任务</t>
+  </si>
+  <si>
+    <t>shareTask</t>
+  </si>
+  <si>
+    <t>Share a game with friends</t>
+  </si>
+  <si>
+    <t>分享一次遊戲給好友</t>
+  </si>
+  <si>
+    <t>मित्रों के साथ खेल साझा करें</t>
+  </si>
+  <si>
+    <t>分享一次游戏给好友</t>
+  </si>
+  <si>
+    <t>Networkconnection</t>
+  </si>
+  <si>
+    <t>Network connection in progress</t>
+  </si>
+  <si>
+    <t>正在進行網絡連接</t>
+  </si>
+  <si>
+    <t>नेटवर्क कनेक्शन प्रगति में है</t>
+  </si>
+  <si>
+    <t>正在进行网络连接</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+  </si>
+  <si>
+    <t>存入</t>
+  </si>
+  <si>
+    <t>डिपोस्ट</t>
+  </si>
+  <si>
+    <t>takeout</t>
+  </si>
+  <si>
+    <t>TAKE OUT</t>
+  </si>
+  <si>
+    <t>取出</t>
+  </si>
+  <si>
+    <t>निकालें</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>उपयोग</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>DEALER</t>
+  </si>
+  <si>
+    <t>莊家</t>
+  </si>
+  <si>
+    <t>डीलर</t>
+  </si>
+  <si>
+    <t>庄家</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>खेल खेलाड़ी</t>
+  </si>
+  <si>
+    <t>PublicBrand</t>
+  </si>
+  <si>
+    <t>Public Brand</t>
+  </si>
+  <si>
+    <t>公牌</t>
+  </si>
+  <si>
+    <t>सार्वजनिक ब्रैंड</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>攜帶</t>
+  </si>
+  <si>
+    <t>बाहर करें</t>
+  </si>
+  <si>
+    <t>携带</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>SAFE</t>
+  </si>
+  <si>
+    <t>保險箱</t>
+  </si>
+  <si>
+    <t>सुरक्षा</t>
+  </si>
+  <si>
+    <t>保险箱</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>繁體中文</t>
+  </si>
+  <si>
+    <t>भारत</t>
+  </si>
+  <si>
+    <t>简体中文</t>
   </si>
 </sst>
 </file>
@@ -1505,9 +1952,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1530,9 +1977,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,46 +1992,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1593,37 +2000,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,18 +2014,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1667,8 +2042,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1683,25 +2130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,7 +2154,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,7 +2184,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,37 +2280,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,79 +2310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,6 +2321,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1926,54 +2421,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1982,10 +2429,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1994,133 +2441,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2482,10 +2929,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A117"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4290,10 +4737,10 @@
         <v>390</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4301,19 +4748,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4321,16 +4768,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>310</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>312</v>
@@ -4341,16 +4788,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>302</v>
@@ -4361,16 +4808,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>296</v>
@@ -4381,19 +4828,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4401,19 +4848,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4421,16 +4868,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>306</v>
+        <v>418</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>307</v>
@@ -4441,19 +4888,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4461,7 +4908,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>336</v>
@@ -4481,7 +4928,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>331</v>
@@ -4490,7 +4937,7 @@
         <v>332</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>334</v>
@@ -4501,19 +4948,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4521,16 +4968,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>347</v>
@@ -4541,19 +4988,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4561,19 +5008,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" ht="48" customHeight="1" spans="1:6">
@@ -4581,19 +5028,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4601,19 +5048,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4621,19 +5068,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" ht="33" spans="1:6">
@@ -4641,19 +5088,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" ht="33" spans="1:6">
@@ -4661,19 +5108,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4681,19 +5128,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4701,19 +5148,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4721,19 +5168,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4741,19 +5188,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4761,19 +5208,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4781,19 +5228,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4801,19 +5248,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4821,19 +5268,659 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="119" ht="33" spans="1:6">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="120" ht="33" spans="1:6">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="127" ht="17" customHeight="1" spans="1:6">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="128" ht="16" customHeight="1" spans="1:6">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="130" ht="33" spans="1:6">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -4849,7 +5936,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -4866,7 +5953,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>

--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="781">
   <si>
     <t>id</t>
   </si>
@@ -312,6 +312,9 @@
     <t>Relief</t>
   </si>
   <si>
+    <t>RELIEF</t>
+  </si>
+  <si>
     <t>救濟金</t>
   </si>
   <si>
@@ -627,7 +630,7 @@
     <t>personalInformation</t>
   </si>
   <si>
-    <t>Personal Information</t>
+    <t>PERSONAL INFORMATION</t>
   </si>
   <si>
     <t>個人信息</t>
@@ -1401,7 +1404,7 @@
     <t>लिंक समय समाप्त, या आप नेटवर्क डिस्कनेक्ट किया है</t>
   </si>
   <si>
-    <t>链接超时，或您已经断开网络</t>
+    <t>连接超时，或您已经断开网络</t>
   </si>
   <si>
     <t>dianjipinfan</t>
@@ -1515,13 +1518,13 @@
     <t>backroom</t>
   </si>
   <si>
-    <t>Back to the room</t>
+    <t>Back</t>
   </si>
   <si>
     <t>回到房間</t>
   </si>
   <si>
-    <t>कमरे में वापस</t>
+    <t>वापस</t>
   </si>
   <si>
     <t>回到房间</t>
@@ -1945,6 +1948,417 @@
   </si>
   <si>
     <t>简体中文</t>
+  </si>
+  <si>
+    <t>ReliefTips</t>
+  </si>
+  <si>
+    <t>When your gold coin is less than 2000, you can receive relief up to 3 times a day</t>
+  </si>
+  <si>
+    <t>當你的金幣低於2000時，可以領取救濟金，每天最多3次</t>
+  </si>
+  <si>
+    <t>जब तुम्हारे सोने कोने 2000 से कम है, तुम दिन के 3 बार तक सुरक्षित पैसा प्राप्त कर सकते हैं</t>
+  </si>
+  <si>
+    <t>当你的金币低于2000时，可以领取救济金，每天最多3次</t>
+  </si>
+  <si>
+    <t>yichu</t>
+  </si>
+  <si>
+    <t>If you haven't operated for a long time, the system will temporarily remove you from the room</t>
+  </si>
+  <si>
+    <t>您長時間未操作，系統將暫時將您移除房間</t>
+  </si>
+  <si>
+    <t>यदि आप लंबे समय के लिए कार्य नहीं किया है, तो तंत्र तुम्हें कमरे से अस्थायी रूप से हटाएगा</t>
+  </si>
+  <si>
+    <t>您长时间未操作，系统将暂时将您移除房间</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>HI~</t>
+  </si>
+  <si>
+    <t>你好呀</t>
+  </si>
+  <si>
+    <t>हैलो</t>
+  </si>
+  <si>
+    <t>comeon</t>
+  </si>
+  <si>
+    <t>Come on！</t>
+  </si>
+  <si>
+    <t>快點，快點</t>
+  </si>
+  <si>
+    <t>आओ</t>
+  </si>
+  <si>
+    <t>快点，快点</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>Oh, my God~</t>
+  </si>
+  <si>
+    <t>我的天呐~</t>
+  </si>
+  <si>
+    <t>मेरे देव</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>haha~</t>
+  </si>
+  <si>
+    <t>哈哈~</t>
+  </si>
+  <si>
+    <t>हा-हा~</t>
+  </si>
+  <si>
+    <t>notmyday</t>
+  </si>
+  <si>
+    <t>Not my day</t>
+  </si>
+  <si>
+    <t>今天真倒楣~</t>
+  </si>
+  <si>
+    <t>क्या बुरा दिन~</t>
+  </si>
+  <si>
+    <t>今天真倒霉~</t>
+  </si>
+  <si>
+    <t>luckyday</t>
+  </si>
+  <si>
+    <t>Lucky day！</t>
+  </si>
+  <si>
+    <t>今天真走運~</t>
+  </si>
+  <si>
+    <t>शुभ दिन~</t>
+  </si>
+  <si>
+    <t>今天真走运~</t>
+  </si>
+  <si>
+    <t>cheer</t>
+  </si>
+  <si>
+    <t>Cheers!</t>
+  </si>
+  <si>
+    <t>乾杯！</t>
+  </si>
+  <si>
+    <t>शान्त!</t>
+  </si>
+  <si>
+    <t>干杯！</t>
+  </si>
+  <si>
+    <t>Congratulations</t>
+  </si>
+  <si>
+    <t>Congratulations！</t>
+  </si>
+  <si>
+    <t>祝賀你~</t>
+  </si>
+  <si>
+    <t>अभिनन्दन ~</t>
+  </si>
+  <si>
+    <t>祝贺你~</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>Bye!</t>
+  </si>
+  <si>
+    <t>再見！</t>
+  </si>
+  <si>
+    <t>बाय!</t>
+  </si>
+  <si>
+    <t>再见！</t>
+  </si>
+  <si>
+    <t>Blindinjection</t>
+  </si>
+  <si>
+    <t>Blind injection (before injection)</t>
+  </si>
+  <si>
+    <t>盲注（注前）</t>
+  </si>
+  <si>
+    <t>ब्लैंड इन्जेक्शन(इन्जेक्शन से पहले)</t>
+  </si>
+  <si>
+    <t>Preflop</t>
+  </si>
+  <si>
+    <t>Pre-flop</t>
+  </si>
+  <si>
+    <t>翻牌前</t>
+  </si>
+  <si>
+    <t>उपसर्ग</t>
+  </si>
+  <si>
+    <t>Flop</t>
+  </si>
+  <si>
+    <t>翻牌</t>
+  </si>
+  <si>
+    <t>फ्लोप</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>轉牌</t>
+  </si>
+  <si>
+    <t>घुमाएँ</t>
+  </si>
+  <si>
+    <t>转牌</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>河牌</t>
+  </si>
+  <si>
+    <t>नदी</t>
+  </si>
+  <si>
+    <t>notopen</t>
+  </si>
+  <si>
+    <t>Not yet open</t>
+  </si>
+  <si>
+    <t>暫未開放</t>
+  </si>
+  <si>
+    <t>अभी नहीं खोलें</t>
+  </si>
+  <si>
+    <t>暂未开放</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>नाम</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>कोना</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>जनर</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>Reconnecting</t>
+  </si>
+  <si>
+    <t>重新連接</t>
+  </si>
+  <si>
+    <t>पुनः कनेक्ट हो</t>
+  </si>
+  <si>
+    <t>正在重连</t>
+  </si>
+  <si>
+    <t>CustomerService</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>聯系客服</t>
+  </si>
+  <si>
+    <t>ग्राहक सेवा</t>
+  </si>
+  <si>
+    <t>联系客服</t>
+  </si>
+  <si>
+    <t>LogoutLogin</t>
+  </si>
+  <si>
+    <t>Logout Login</t>
+  </si>
+  <si>
+    <t>註銷登錄</t>
+  </si>
+  <si>
+    <t>लॉगआउट</t>
+  </si>
+  <si>
+    <t>注销登录</t>
+  </si>
+  <si>
+    <t>reconnect</t>
+  </si>
+  <si>
+    <t>Attempting to reconnect</t>
+  </si>
+  <si>
+    <t>正在嘗試重新連接</t>
+  </si>
+  <si>
+    <t>फिर से कनेक्ट करने की कोशिश कर रहा है</t>
+  </si>
+  <si>
+    <t>正在尝试重新连接</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>EXIT</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>बाहर</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>Please connect to the network and try again</t>
+  </si>
+  <si>
+    <t>請連接網絡後重試</t>
+  </si>
+  <si>
+    <t>कृपया नेटवर्क से संपर्क करें</t>
+  </si>
+  <si>
+    <t>请连接网络后重试</t>
+  </si>
+  <si>
+    <t>Networkerror</t>
+  </si>
+  <si>
+    <t>Network error, reconnect？</t>
+  </si>
+  <si>
+    <t>網絡出錯，是否重連</t>
+  </si>
+  <si>
+    <t>नेटवर्क त्रुटि, यह फिर से है</t>
+  </si>
+  <si>
+    <t>网络出错，是否重连</t>
+  </si>
+  <si>
+    <t>Reconnection</t>
+  </si>
+  <si>
+    <t>重連</t>
+  </si>
+  <si>
+    <t>फिर से कनेक्शन</t>
+  </si>
+  <si>
+    <t>重连</t>
+  </si>
+  <si>
+    <t>Connectiontimedout</t>
+  </si>
+  <si>
+    <t>Connection timed out</t>
+  </si>
+  <si>
+    <t>連接超時</t>
+  </si>
+  <si>
+    <t>कनेक्शन का समय समाप्त</t>
+  </si>
+  <si>
+    <t>连接超时</t>
+  </si>
+  <si>
+    <t>Networkinstability</t>
+  </si>
+  <si>
+    <t>Network instability</t>
+  </si>
+  <si>
+    <t>網絡不穩定</t>
+  </si>
+  <si>
+    <t>नेटवर्क अस्थिर</t>
+  </si>
+  <si>
+    <t>网络不稳定</t>
+  </si>
+  <si>
+    <t>Network Error</t>
+  </si>
+  <si>
+    <t>網絡出錯</t>
+  </si>
+  <si>
+    <t>नेटवर्क त्रुटि</t>
+  </si>
+  <si>
+    <t>网络出错</t>
   </si>
 </sst>
 </file>
@@ -1952,8 +2366,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1977,31 +2391,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2013,23 +2415,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2043,6 +2430,28 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
@@ -2050,9 +2459,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2067,25 +2499,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2105,17 +2521,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2130,13 +2544,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,169 +2718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2325,6 +2739,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2335,15 +2773,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2372,6 +2801,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2383,30 +2821,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2429,10 +2843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2441,16 +2855,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2459,115 +2873,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2929,10 +3343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3411,16 +3825,16 @@
         <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3428,19 +3842,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3448,19 +3862,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="1:6">
@@ -3468,19 +3882,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" ht="17" customHeight="1" spans="1:6">
@@ -3488,19 +3902,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3508,19 +3922,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3528,19 +3942,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3548,19 +3962,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3568,19 +3982,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
@@ -3588,19 +4002,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" ht="33" spans="1:6">
@@ -3608,19 +4022,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3628,19 +4042,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3648,19 +4062,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3668,19 +4082,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3688,19 +4102,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3708,19 +4122,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3728,19 +4142,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3748,19 +4162,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3768,19 +4182,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3788,19 +4202,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3808,19 +4222,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3828,19 +4242,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3848,19 +4262,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3868,19 +4282,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3888,19 +4302,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3908,19 +4322,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3928,19 +4342,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3948,19 +4362,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3968,19 +4382,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3988,19 +4402,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4008,19 +4422,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4028,19 +4442,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4048,19 +4462,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4068,19 +4482,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4088,19 +4502,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4108,19 +4522,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4128,19 +4542,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4148,19 +4562,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4168,19 +4582,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4188,19 +4602,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4208,19 +4622,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4228,19 +4642,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4248,19 +4662,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4268,19 +4682,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4288,19 +4702,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4308,19 +4722,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4328,19 +4742,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4348,19 +4762,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4368,19 +4782,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4388,19 +4802,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4408,19 +4822,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4428,19 +4842,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4448,19 +4862,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" ht="17" customHeight="1" spans="1:6">
@@ -4468,19 +4882,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4488,19 +4902,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4508,19 +4922,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4528,19 +4942,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="F80" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4548,19 +4962,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4568,19 +4982,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4588,19 +5002,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4608,19 +5022,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4628,19 +5042,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4648,19 +5062,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="F86" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4668,19 +5082,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4688,19 +5102,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4708,19 +5122,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4728,19 +5142,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4748,19 +5162,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4768,19 +5182,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4788,19 +5202,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4808,19 +5222,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4828,19 +5242,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4848,19 +5262,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4868,19 +5282,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4888,19 +5302,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4908,19 +5322,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4928,19 +5342,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4948,19 +5362,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4968,19 +5382,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4988,19 +5402,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5008,19 +5422,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="105" ht="48" customHeight="1" spans="1:6">
@@ -5028,19 +5442,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5048,19 +5462,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5068,19 +5482,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" ht="33" spans="1:6">
@@ -5088,19 +5502,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" ht="33" spans="1:6">
@@ -5108,19 +5522,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5128,19 +5542,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="F110" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5148,19 +5562,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="F111" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5168,19 +5582,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="F112" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5188,19 +5602,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="F113" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5208,19 +5622,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="F114" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5228,19 +5642,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5248,19 +5662,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="F116" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5268,19 +5682,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="F117" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5288,19 +5702,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="119" ht="33" spans="1:6">
@@ -5308,19 +5722,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" ht="33" spans="1:6">
@@ -5328,19 +5742,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5348,19 +5762,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5368,19 +5782,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5388,19 +5802,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5408,19 +5822,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5428,19 +5842,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5448,19 +5862,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="127" ht="17" customHeight="1" spans="1:6">
@@ -5468,19 +5882,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" ht="16" customHeight="1" spans="1:6">
@@ -5488,19 +5902,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5508,19 +5922,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" ht="33" spans="1:6">
@@ -5528,19 +5942,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5548,19 +5962,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5568,19 +5982,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5588,19 +6002,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5608,19 +6022,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5628,19 +6042,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D135" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="F135" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5648,19 +6062,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5668,19 +6082,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5688,19 +6102,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5708,19 +6122,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5728,19 +6142,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5748,19 +6162,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5768,19 +6182,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5788,19 +6202,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5808,19 +6222,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5828,19 +6242,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5848,19 +6262,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5868,19 +6282,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5888,19 +6302,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5908,19 +6322,659 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="150" ht="33" spans="1:6">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="151" ht="49.5" spans="1:6">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="791">
   <si>
     <t>id</t>
   </si>
@@ -24,16 +24,16 @@
     <t>keyword:string</t>
   </si>
   <si>
-    <t>EN:string</t>
-  </si>
-  <si>
-    <t>TC:string</t>
-  </si>
-  <si>
-    <t>IN:string</t>
-  </si>
-  <si>
-    <t>ZH:string</t>
+    <t>en:string</t>
+  </si>
+  <si>
+    <t>tc:string</t>
+  </si>
+  <si>
+    <t>in:string</t>
+  </si>
+  <si>
+    <t>zh:string</t>
   </si>
   <si>
     <t>Setting</t>
@@ -447,13 +447,13 @@
     <t>coinTooMuch</t>
   </si>
   <si>
-    <t>Too many gold coins, please choose a more advanced room</t>
+    <t>Too much gold coins</t>
   </si>
   <si>
     <t>金幣過多，請選擇更高級的房間</t>
   </si>
   <si>
-    <t>अत्यधिक सोने के सिक्के, कृपया एक उच्च कमरे का चयन करें</t>
+    <t>बहुत सोने कोना</t>
   </si>
   <si>
     <t>金币过多，请选择更高级的房间</t>
@@ -462,13 +462,13 @@
     <t>coinNotEnough</t>
   </si>
   <si>
-    <t>Not enough gold coins, please choose a lower room</t>
+    <t>Not enough gold coins</t>
   </si>
   <si>
     <t>金幣不足，請選擇更低級的房間</t>
   </si>
   <si>
-    <t>यदि सोने का सिक्का पर्याप्त नहीं है, तो कृपया निचले स्तर के कमरे का चयन करें।</t>
+    <t>अपर्याप्त सोने कोना</t>
   </si>
   <si>
     <t>金币不足，请选择更低级的房间</t>
@@ -1584,9 +1584,6 @@
     <t>金幣不足</t>
   </si>
   <si>
-    <t>अपर्याप्त सोने कोना</t>
-  </si>
-  <si>
     <t>金币不足</t>
   </si>
   <si>
@@ -2349,6 +2346,9 @@
     <t>网络不稳定</t>
   </si>
   <si>
+    <t>Networkerror1</t>
+  </si>
+  <si>
     <t>Network Error</t>
   </si>
   <si>
@@ -2359,6 +2359,36 @@
   </si>
   <si>
     <t>网络出错</t>
+  </si>
+  <si>
+    <t>sitdown</t>
+  </si>
+  <si>
+    <t>Sit down and wait for the start</t>
+  </si>
+  <si>
+    <t>坐下成功，等待開局</t>
+  </si>
+  <si>
+    <t>बैठो और प्रारंभ के लिए इंतजार करें</t>
+  </si>
+  <si>
+    <t>坐下成功，等待开局</t>
+  </si>
+  <si>
+    <t>standup1</t>
+  </si>
+  <si>
+    <t>Sit up successfully and wait for the end</t>
+  </si>
+  <si>
+    <t>坐起成功，等待結束</t>
+  </si>
+  <si>
+    <t>सफलतापूर्वक बैठो और अंत के लिए इंतजार करें</t>
+  </si>
+  <si>
+    <t>坐起成功，等待结束</t>
   </si>
 </sst>
 </file>
@@ -2391,27 +2421,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2423,29 +2437,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2459,32 +2458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2499,15 +2474,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2521,15 +2550,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2544,13 +2574,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2562,55 +2664,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2622,103 +2748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2739,30 +2769,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2773,15 +2779,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2801,15 +2798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2821,6 +2809,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2843,10 +2873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2855,133 +2885,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3343,10 +3373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3997,7 +4027,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" ht="33" spans="1:6">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4017,7 +4047,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" ht="33" spans="1:6">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5791,10 +5821,10 @@
         <v>521</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5802,19 +5832,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="F123" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5825,10 +5855,10 @@
         <v>448</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>448</v>
@@ -5842,19 +5872,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5862,19 +5892,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="127" ht="17" customHeight="1" spans="1:6">
@@ -5882,19 +5912,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="128" ht="16" customHeight="1" spans="1:6">
@@ -5902,19 +5932,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5922,19 +5952,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="130" ht="33" spans="1:6">
@@ -5942,19 +5972,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5962,19 +5992,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5982,19 +6012,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6002,7 +6032,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>449</v>
@@ -6014,7 +6044,7 @@
         <v>451</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6022,19 +6052,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6042,19 +6072,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6062,19 +6092,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6082,19 +6112,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>588</v>
-      </c>
       <c r="F137" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6102,19 +6132,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6122,19 +6152,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6142,19 +6172,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6162,19 +6192,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="F141" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6182,19 +6212,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="F142" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6202,19 +6232,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="F143" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6222,19 +6252,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6242,19 +6272,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="F145" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6262,19 +6292,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="F146" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6282,19 +6312,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6302,19 +6332,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6322,19 +6352,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="150" ht="33" spans="1:6">
@@ -6342,19 +6372,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="151" ht="49.5" spans="1:6">
@@ -6362,19 +6392,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6382,19 +6412,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="F152" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6402,19 +6432,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6422,19 +6452,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="F154" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6442,19 +6472,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="F155" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6462,19 +6492,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6482,19 +6512,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6502,19 +6532,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6522,19 +6552,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="F159" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6542,19 +6572,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6562,19 +6592,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="F161" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6582,19 +6612,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>703</v>
-      </c>
       <c r="F162" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6602,19 +6632,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="E163" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6622,19 +6652,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6642,19 +6672,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="E165" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -6662,19 +6692,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6682,19 +6712,19 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="F167" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6705,16 +6735,16 @@
         <v>0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6731,7 +6761,7 @@
         <v>134</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>136</v>
@@ -6742,19 +6772,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6762,19 +6792,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="F171" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6782,19 +6812,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -6802,19 +6832,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -6822,19 +6852,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -6842,19 +6872,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>752</v>
-      </c>
       <c r="F175" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6862,19 +6892,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="F176" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6882,19 +6912,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6902,19 +6932,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="F178" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6922,19 +6952,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6942,19 +6972,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6962,7 +6992,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>777</v>
@@ -6975,6 +7005,46 @@
       </c>
       <c r="F181" s="1" t="s">
         <v>780</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>

--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="812">
   <si>
     <t>id</t>
   </si>
@@ -2389,6 +2389,69 @@
   </si>
   <si>
     <t>坐起成功，等待结束</t>
+  </si>
+  <si>
+    <t>logup</t>
+  </si>
+  <si>
+    <t>Upload log</t>
+  </si>
+  <si>
+    <t>上傳日誌</t>
+  </si>
+  <si>
+    <t>रिपोर्ट</t>
+  </si>
+  <si>
+    <t>上传日志</t>
+  </si>
+  <si>
+    <t>sureexit</t>
+  </si>
+  <si>
+    <t>After exiting, you will lose chips by default. Are you sure to exit</t>
+  </si>
+  <si>
+    <t>退出後默認輸掉籌碼，確認退出嗎</t>
+  </si>
+  <si>
+    <t>बाहर होने के बाद, आप डिफ़ॉल्ट से चिप्स खोलेंगे। क्या आप निश्चित है बाहर होने के लिए</t>
+  </si>
+  <si>
+    <t>退出后默认输掉筹码，确认退出吗</t>
+  </si>
+  <si>
+    <t>quitgame</t>
+  </si>
+  <si>
+    <t>Are you sure you want to quit the game</t>
+  </si>
+  <si>
+    <t>क्या आप निश्चित है कि आप खेल से बाहर होना चाहते हैं</t>
+  </si>
+  <si>
+    <t>你确定要退出游戏吗</t>
+  </si>
+  <si>
+    <t>nomail</t>
+  </si>
+  <si>
+    <t>There is no mail information for the time being</t>
+  </si>
+  <si>
+    <t>暫時沒有郵件資訊</t>
+  </si>
+  <si>
+    <t>समय के लिए कोई मेल जानकारी नहीं है</t>
+  </si>
+  <si>
+    <t>暂时没有邮件信息</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>RETURN</t>
   </si>
 </sst>
 </file>
@@ -2396,10 +2459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2421,16 +2484,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2438,6 +2493,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2452,14 +2514,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2474,69 +2590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2550,18 +2604,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2574,7 +2637,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2586,7 +2721,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2598,157 +2805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2768,6 +2831,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2779,63 +2851,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2857,11 +2872,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2873,10 +2936,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2885,133 +2948,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3373,10 +3436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -7045,6 +7108,106 @@
       </c>
       <c r="F183" s="1" t="s">
         <v>790</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="185" ht="33" spans="1:6">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="186" ht="33" spans="1:6">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="187" ht="33" spans="1:6">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="875">
   <si>
     <t>id</t>
   </si>
@@ -2452,6 +2452,195 @@
   </si>
   <si>
     <t>RETURN</t>
+  </si>
+  <si>
+    <t>TexasHoldemTask1</t>
+  </si>
+  <si>
+    <t>Win 5000 gold coins inTexas Holdem</t>
+  </si>
+  <si>
+    <t>在德州撲克遊戲累計贏5000金幣</t>
+  </si>
+  <si>
+    <t>टेक्सास होल्डेम में 5000 सोने कोइन जीता</t>
+  </si>
+  <si>
+    <t>在德州扑克游戏累计赢5000金币</t>
+  </si>
+  <si>
+    <t>Changetables</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>換桌</t>
+  </si>
+  <si>
+    <t>बदलें</t>
+  </si>
+  <si>
+    <t>换桌</t>
+  </si>
+  <si>
+    <t>Withdrawalsucceeded</t>
+  </si>
+  <si>
+    <t>Withdrawal succeeded</t>
+  </si>
+  <si>
+    <t>取款成功</t>
+  </si>
+  <si>
+    <t>विचड्रावेल सफल</t>
+  </si>
+  <si>
+    <t>passwordError</t>
+  </si>
+  <si>
+    <t>The password you entered is incorrect</t>
+  </si>
+  <si>
+    <t>您輸入的密碼不正確</t>
+  </si>
+  <si>
+    <t>आप प्रविष्ट किया गया पासवर्ड</t>
+  </si>
+  <si>
+    <t>您输入的密码不正确</t>
+  </si>
+  <si>
+    <t>Insufficientbankbalance</t>
+  </si>
+  <si>
+    <t>Insufficient bank balance</t>
+  </si>
+  <si>
+    <t>銀行餘額不足</t>
+  </si>
+  <si>
+    <t>अपर्याप्त बैंक बैलेंस</t>
+  </si>
+  <si>
+    <t>银行余额不足</t>
+  </si>
+  <si>
+    <t>Networkerror2</t>
+  </si>
+  <si>
+    <t>Network error, please operate again</t>
+  </si>
+  <si>
+    <t>網絡錯誤，請重新操作</t>
+  </si>
+  <si>
+    <t>नेटवर्क त्रुटि, कृपया फिर कार्यान्वयन करें</t>
+  </si>
+  <si>
+    <t>网络错误，请重新操作</t>
+  </si>
+  <si>
+    <t>Depositsuccessful</t>
+  </si>
+  <si>
+    <t>Deposit successful</t>
+  </si>
+  <si>
+    <t>存款成功</t>
+  </si>
+  <si>
+    <t>डिपोस्ट सफल</t>
+  </si>
+  <si>
+    <t>passwordError1</t>
+  </si>
+  <si>
+    <t>The password you entered is incorrect. Please re-enter it</t>
+  </si>
+  <si>
+    <t>您輸入的密碼不正確，請重新輸入</t>
+  </si>
+  <si>
+    <t>आपने प्रविष्ट किया हुआ पासवर्ड गलत है. कृपया इसे फिर प्रविष्ट करें</t>
+  </si>
+  <si>
+    <t>您输入的密码不正确，请重新输入</t>
+  </si>
+  <si>
+    <t>Depositfailed</t>
+  </si>
+  <si>
+    <t>Deposit failed. The deposit amount exceeds the maximum amount carried</t>
+  </si>
+  <si>
+    <t>存款失敗，存款金額超過攜帶最大金額</t>
+  </si>
+  <si>
+    <t>डेपोसिट असफल. डेपोसिट मात्रा अधिकतम मात्रा ज़्यादा है</t>
+  </si>
+  <si>
+    <t>存款失败，存款金额超过携带最大金额</t>
+  </si>
+  <si>
+    <t>can'tdeposit</t>
+  </si>
+  <si>
+    <t>You have bet or been on the bank and can't deposit it. Please try again later</t>
+  </si>
+  <si>
+    <t>已下注或上莊，無法存入，請稍後再試</t>
+  </si>
+  <si>
+    <t>आप बैंक में शब्द हो गया है या हो गया है और इसे डॉस्पोट नहीं कर सकता। कृपया बाद फिर कोशिश करें</t>
+  </si>
+  <si>
+    <t>已下注或上庄，无法存入，请稍后再试</t>
+  </si>
+  <si>
+    <t>forbidden</t>
+  </si>
+  <si>
+    <t>This operation is forbidden in the game room. Please try again in a minute</t>
+  </si>
+  <si>
+    <t>遊戲房間內禁止此操作，請您一分鐘後再試</t>
+  </si>
+  <si>
+    <t>यह आपरेशन वर्तमान में रोका गया है. कृपया एक मिनट में फिर कोशिश करें</t>
+  </si>
+  <si>
+    <t>游戏房间内禁止此操作，请您一分钟后再试</t>
+  </si>
+  <si>
+    <t>enternumber</t>
+  </si>
+  <si>
+    <t>Please enter the correct number</t>
+  </si>
+  <si>
+    <t>請輸入正確的數位</t>
+  </si>
+  <si>
+    <t>कृपया सही संख्या भरें</t>
+  </si>
+  <si>
+    <t>请输入正确的数字</t>
+  </si>
+  <si>
+    <t>enteramount</t>
+  </si>
+  <si>
+    <t>Please enter the deposit amount</t>
+  </si>
+  <si>
+    <t>請輸入存入金額</t>
+  </si>
+  <si>
+    <t>कृपया डोपोसिट मात्रा भरें</t>
+  </si>
+  <si>
+    <t>请输入存入金额</t>
   </si>
 </sst>
 </file>
@@ -2459,10 +2648,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2485,7 +2674,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2499,14 +2688,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2520,8 +2731,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2536,21 +2803,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -2558,73 +2810,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2637,7 +2826,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,7 +2976,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,157 +3006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,15 +3017,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2851,6 +3031,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2872,24 +3100,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2899,32 +3109,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2936,10 +3125,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2948,133 +3137,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3436,10 +3625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -7208,6 +7397,266 @@
       </c>
       <c r="F188" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="196" ht="33" spans="1:6">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="197" ht="33" spans="1:6">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="198" ht="49.5" spans="1:6">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="199" ht="33" spans="1:6">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="880">
   <si>
     <t>id</t>
   </si>
@@ -630,13 +630,13 @@
     <t>personalInformation</t>
   </si>
   <si>
-    <t>PERSONAL INFORMATION</t>
+    <t>INFORMATION</t>
   </si>
   <si>
     <t>個人信息</t>
   </si>
   <si>
-    <t>व्यक्तिगत जानकारी</t>
+    <t>जानकारी</t>
   </si>
   <si>
     <t>个人信息</t>
@@ -1410,16 +1410,16 @@
     <t>dianjipinfan</t>
   </si>
   <si>
-    <t>Click too often, please try again in 1 second</t>
-  </si>
-  <si>
-    <t>點擊過於頻繁，請1秒後重試</t>
-  </si>
-  <si>
-    <t>बहुत बार क्लिक करें, कृपया 1 सेकण्ड में फिर कोशिश करें</t>
-  </si>
-  <si>
-    <t>点击过于频繁，请1秒后重试</t>
+    <t>Click too often, please try again in {1} second</t>
+  </si>
+  <si>
+    <t>點擊過於頻繁，請{1}秒後重試</t>
+  </si>
+  <si>
+    <t>बहुत बार क्लिक करें, कृपया {1} सेकण्ड में फिर कोशिश करें</t>
+  </si>
+  <si>
+    <t>点击过于频繁，请{1}秒后重试</t>
   </si>
   <si>
     <t>room1</t>
@@ -2641,6 +2641,21 @@
   </si>
   <si>
     <t>请输入存入金额</t>
+  </si>
+  <si>
+    <t>Requestingdata</t>
+  </si>
+  <si>
+    <t>Requesting data</t>
+  </si>
+  <si>
+    <t>正在請求數據</t>
+  </si>
+  <si>
+    <t>निवेदन डाटा</t>
+  </si>
+  <si>
+    <t>正在请求数据</t>
   </si>
 </sst>
 </file>
@@ -2648,10 +2663,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2674,13 +2689,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -2688,7 +2696,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2696,20 +2719,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2723,24 +2732,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2754,9 +2748,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2771,6 +2764,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -2778,9 +2794,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2796,22 +2826,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2826,13 +2841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,25 +2853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2886,7 +2889,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2898,7 +2913,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2910,7 +2955,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,91 +3021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,6 +3032,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3031,15 +3061,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3062,23 +3083,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3108,15 +3132,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3125,10 +3140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3137,37 +3152,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3176,94 +3185,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3625,10 +3640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -7659,6 +7674,26 @@
         <v>874</v>
       </c>
     </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7672,7 +7707,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -7689,7 +7724,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>

--- a/config_multi.xls/language.xlsx
+++ b/config_multi.xls/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="903">
   <si>
     <t>id</t>
   </si>
@@ -2656,6 +2656,75 @@
   </si>
   <si>
     <t>正在请求数据</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>莊位</t>
+  </si>
+  <si>
+    <t>庄位</t>
+  </si>
+  <si>
+    <t>UTG</t>
+  </si>
+  <si>
+    <t>槍口位</t>
+  </si>
+  <si>
+    <t>枪口位</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>中位</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>後置位</t>
+  </si>
+  <si>
+    <t>后置位</t>
+  </si>
+  <si>
+    <t>UTG+1</t>
+  </si>
+  <si>
+    <t>槍口位+1</t>
+  </si>
+  <si>
+    <t>枪口位+1</t>
+  </si>
+  <si>
+    <t>MP+2</t>
+  </si>
+  <si>
+    <t>中位+2</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>後置位+1</t>
+  </si>
+  <si>
+    <t>后置位+1</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>詳情</t>
+  </si>
+  <si>
+    <t>विवरण</t>
+  </si>
+  <si>
+    <t>详情</t>
   </si>
 </sst>
 </file>
@@ -2665,8 +2734,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2689,22 +2758,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2718,7 +2787,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2732,34 +2801,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2778,11 +2824,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2794,13 +2856,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2809,14 +2864,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -2831,6 +2886,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2838,42 +2907,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2889,7 +2922,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2901,19 +2970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2925,13 +2994,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2943,13 +3060,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2961,67 +3090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3032,21 +3101,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3080,11 +3134,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3094,15 +3154,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3118,6 +3169,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3140,10 +3209,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3152,7 +3221,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3161,7 +3230,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3170,115 +3239,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3640,10 +3709,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -7692,6 +7761,166 @@
       </c>
       <c r="F202" s="1" t="s">
         <v>879</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>902</v>
       </c>
     </row>
   </sheetData>
